--- a/FlipkardFremwork/src/test/resources/FKFremwork.xlsx
+++ b/FlipkardFremwork/src/test/resources/FKFremwork.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="3930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>dell@123</t>
+  </si>
+  <si>
+    <t>7972547020</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,8 +400,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>7972547020</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
